--- a/Federal Poverty Calculations_2019.xlsx
+++ b/Federal Poverty Calculations_2019.xlsx
@@ -87,36 +87,36 @@
     <t>Below 200%</t>
   </si>
   <si>
-    <t>IF(H2=$O$7,IF(G2&gt;$R$7,"Over 200%", IF(G2&gt;$Q$7,"Below 200%", IF(G2&gt;$P$7,"below 150%","Below 100%"))),
+    <t>Over 200%</t>
+  </si>
+  <si>
+    <t>Column D</t>
+  </si>
+  <si>
+    <t>Column F</t>
+  </si>
+  <si>
+    <t>secrets secrets are no fun</t>
+  </si>
+  <si>
+    <t>Column M</t>
+  </si>
+  <si>
+    <t>Column N</t>
+  </si>
+  <si>
+    <t>Unless they're shared with everyone</t>
+  </si>
+  <si>
+    <t>IF(H2=$O$2,IF(G2&gt;$R$2,"Over 200%", IF(G2&gt;$Q$2,"Below 200%", IF(G2&gt;$P$2,"Below 150%","Below 100%"))),
+ IF(H2=$O$3,IF(G2&gt;$R$3,"Over 200%", IF(G2&gt;$Q$3,"Below 200%", IF(G2&gt;$P$3,"Below 150%","Below 100%"))),
+ IF(H2=$O$4,IF(G2&gt;$R$4,"Over 200%", IF(G2&gt;$Q$4,"Below 200%", IF(G2&gt;$P$4,"Below 150%","Below 100%"))),
+ IF(H2=$O$5,IF(G2&gt;$R$5,"Over 200%", IF(G2&gt;$Q$5,"Below 200%", IF(G2&gt;$P$5,"Below 150%","Below 100%"))),
  IF(H2=$O$6,IF(G2&gt;$R$6,"Over 200%", IF(G2&gt;$Q$6,"Below 200%", IF(G2&gt;$P$6,"Below 150%","Below 100%"))),
+ IF(H2=$O$7,IF(G2&gt;$R$7,"Over 200%", IF(G2&gt;$Q$7,"Below 200%", IF(G2&gt;$P$7,"below 150%","Below 100%"))),
  IF(H2=$O$8,IF(G2&gt;$R$8,"Over 200%", IF(G2&gt;$Q$8,"Below 200%", IF(G2&gt;$P$8,"Below 150%","Below 100%"))),
- IF(H2=$O$5,IF(G2&gt;$R$5,"Over 200%", IF(G2&gt;$Q$5,"Below 200%", IF(G2&gt;$P$5,"Below 150%","Below 100%"))),
- IF(H2=$O$4,IF(G2&gt;$R$4,"Over 200%", IF(G2&gt;$Q$4,"Below 200%", IF(G2&gt;$P$4,"Below 150%","Below 100%"))),
- IF(H2=$O$3,IF(G2&gt;$R$3,"Over 200%", IF(G2&gt;$Q$3,"Below 200%", IF(G2&gt;$P$3,"Below 150%","Below 100%"))),
- IF(H2=$O$2,IF(G2&gt;$R$2,"Over 200%", IF(G2&gt;$Q$2,"Below 200%", IF(G2&gt;$P$2,"Below 150%","Below 100%"))),
  IF(H2=$O$9,IF(G2&gt;$R$9,"Over 200%", IF(G2&gt;$Q$9,"Below 200%", IF(G2&gt;$P$9,"Below 150%","Below 100%"))),
 IF(H2=$O$10,IF(G2&gt;$R$10,"Over 200%",IF(G2&gt;$Q10,"Below 200%", IF(G2&gt;$P$10,"Below 150%","Below 100%"))))))))))))</t>
-  </si>
-  <si>
-    <t>Over 200%</t>
-  </si>
-  <si>
-    <t>Column D</t>
-  </si>
-  <si>
-    <t>Column F</t>
-  </si>
-  <si>
-    <t>secrets secrets are no fun</t>
-  </si>
-  <si>
-    <t>Column M</t>
-  </si>
-  <si>
-    <t>Column N</t>
-  </si>
-  <si>
-    <t>Unless they're shared with everyone</t>
   </si>
 </sst>
 </file>
@@ -1165,7 +1165,7 @@
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="Q12" sqref="Q12"/>
+      <selection pane="bottomLeft" activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1202,13 +1202,13 @@
         <v>12</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>15</v>
@@ -1229,10 +1229,10 @@
         <v>13</v>
       </c>
       <c r="M1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="O1" s="9" t="s">
         <v>3</v>
@@ -1254,22 +1254,22 @@
       </c>
       <c r="C2" s="1"/>
       <c r="G2">
-        <v>2800</v>
+        <v>8000</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I2" t="s">
         <v>2</v>
       </c>
       <c r="K2" t="str">
-        <f>IF(H2=$O$7,IF(G2&gt;$R$7,"Over 200%", IF(G2&gt;$Q$7,"Below 200%", IF(G2&gt;$P$7,"below 150%","Below 100%"))),
+        <f>IF(H2=$O$2,IF(G2&gt;$R$2,"Over 200%", IF(G2&gt;$Q$2,"Below 200%", IF(G2&gt;$P$2,"Below 150%","Below 100%"))),
+ IF(H2=$O$3,IF(G2&gt;$R$3,"Over 200%", IF(G2&gt;$Q$3,"Below 200%", IF(G2&gt;$P$3,"Below 150%","Below 100%"))),
+ IF(H2=$O$4,IF(G2&gt;$R$4,"Over 200%", IF(G2&gt;$Q$4,"Below 200%", IF(G2&gt;$P$4,"Below 150%","Below 100%"))),
+ IF(H2=$O$5,IF(G2&gt;$R$5,"Over 200%", IF(G2&gt;$Q$5,"Below 200%", IF(G2&gt;$P$5,"Below 150%","Below 100%"))),
  IF(H2=$O$6,IF(G2&gt;$R$6,"Over 200%", IF(G2&gt;$Q$6,"Below 200%", IF(G2&gt;$P$6,"Below 150%","Below 100%"))),
+ IF(H2=$O$7,IF(G2&gt;$R$7,"Over 200%", IF(G2&gt;$Q$7,"Below 200%", IF(G2&gt;$P$7,"below 150%","Below 100%"))),
  IF(H2=$O$8,IF(G2&gt;$R$8,"Over 200%", IF(G2&gt;$Q$8,"Below 200%", IF(G2&gt;$P$8,"Below 150%","Below 100%"))),
- IF(H2=$O$5,IF(G2&gt;$R$5,"Over 200%", IF(G2&gt;$Q$5,"Below 200%", IF(G2&gt;$P$5,"Below 150%","Below 100%"))),
- IF(H2=$O$4,IF(G2&gt;$R$4,"Over 200%", IF(G2&gt;$Q$4,"Below 200%", IF(G2&gt;$P$4,"Below 150%","Below 100%"))),
- IF(H2=$O$3,IF(G2&gt;$R$3,"Over 200%", IF(G2&gt;$Q$3,"Below 200%", IF(G2&gt;$P$3,"Below 150%","Below 100%"))),
- IF(H2=$O$2,IF(G2&gt;$R$2,"Over 200%", IF(G2&gt;$Q$2,"Below 200%", IF(G2&gt;$P$2,"Below 150%","Below 100%"))),
  IF(H2=$O$9,IF(G2&gt;$R$9,"Over 200%", IF(G2&gt;$Q$9,"Below 200%", IF(G2&gt;$P$9,"Below 150%","Below 100%"))),
 IF(H2=$O$10,IF(G2&gt;$R$10,"Over 200%",IF(G2&gt;$Q10,"Below 200%", IF(G2&gt;$P$10,"Below 150%","Below 100%"))))))))))))</f>
         <v>Over 200%</v>
@@ -1298,31 +1298,31 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3">
-        <v>2743</v>
+        <v>1000</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="s">
         <v>1</v>
       </c>
       <c r="K3" t="str">
-        <f>IF(H3=$O$7,IF(G3&gt;$R$7,"Over 200%", IF(G3&gt;$Q$7,"Below 200%", IF(G3&gt;$P$7,"below 150%","Below 100%"))),
+        <f>IF(H3=$O$2,IF(G3&gt;$R$2,"Over 200%", IF(G3&gt;$Q$2,"Below 200%", IF(G3&gt;$P$2,"Below 150%","Below 100%"))),
+ IF(H3=$O$3,IF(G3&gt;$R$3,"Over 200%", IF(G3&gt;$Q$3,"Below 200%", IF(G3&gt;$P$3,"Below 150%","Below 100%"))),
+ IF(H3=$O$4,IF(G3&gt;$R$4,"Over 200%", IF(G3&gt;$Q$4,"Below 200%", IF(G3&gt;$P$4,"Below 150%","Below 100%"))),
+ IF(H3=$O$5,IF(G3&gt;$R$5,"Over 200%", IF(G3&gt;$Q$5,"Below 200%", IF(G3&gt;$P$5,"Below 150%","Below 100%"))),
  IF(H3=$O$6,IF(G3&gt;$R$6,"Over 200%", IF(G3&gt;$Q$6,"Below 200%", IF(G3&gt;$P$6,"Below 150%","Below 100%"))),
+ IF(H3=$O$7,IF(G3&gt;$R$7,"Over 200%", IF(G3&gt;$Q$7,"Below 200%", IF(G3&gt;$P$7,"below 150%","Below 100%"))),
  IF(H3=$O$8,IF(G3&gt;$R$8,"Over 200%", IF(G3&gt;$Q$8,"Below 200%", IF(G3&gt;$P$8,"Below 150%","Below 100%"))),
- IF(H3=$O$5,IF(G3&gt;$R$5,"Over 200%", IF(G3&gt;$Q$5,"Below 200%", IF(G3&gt;$P$5,"Below 150%","Below 100%"))),
- IF(H3=$O$4,IF(G3&gt;$R$4,"Over 200%", IF(G3&gt;$Q$4,"Below 200%", IF(G3&gt;$P$4,"Below 150%","Below 100%"))),
- IF(H3=$O$3,IF(G3&gt;$R$3,"Over 200%", IF(G3&gt;$Q$3,"Below 200%", IF(G3&gt;$P$3,"Below 150%","Below 100%"))),
- IF(H3=$O$2,IF(G3&gt;$R$2,"Over 200%", IF(G3&gt;$Q$2,"Below 200%", IF(G3&gt;$P$2,"Below 150%","Below 100%"))),
  IF(H3=$O$9,IF(G3&gt;$R$9,"Over 200%", IF(G3&gt;$Q$9,"Below 200%", IF(G3&gt;$P$9,"Below 150%","Below 100%"))),
 IF(H3=$O$10,IF(G3&gt;$R$10,"Over 200%",IF(G3&gt;$Q11,"Below 200%", IF(G3&gt;$P$10,"Below 150%","Below 100%"))))))))))))</f>
-        <v>Below 200%</v>
+        <v>Below 100%</v>
       </c>
       <c r="L3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O3" s="12">
         <v>2</v>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="S6" s="2"/>
       <c r="T6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U6" s="17"/>
       <c r="V6" s="17"/>
@@ -1525,7 +1525,7 @@
     <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>
       <c r="O13" s="23" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="P13" s="24"/>
       <c r="Q13" s="24"/>
